--- a/LabTH/Lab3/API Specs Template.xlsx
+++ b/LabTH/Lab3/API Specs Template.xlsx
@@ -1,34 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\01-Working\04-DaoTao\CNPMNC\Thuc hanh CNPM II\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView windowWidth="28125" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>Tên App</t>
   </si>
   <si>
+    <t>Chuẩn giao tiếp</t>
+  </si>
+  <si>
+    <t>Hàm Api</t>
+  </si>
+  <si>
     <t>Phương thức</t>
   </si>
   <si>
@@ -47,14 +43,11 @@
     <t>Mô tả mã lỗi</t>
   </si>
   <si>
-    <t>Chuẩn giao tiếp</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>VD: JSON-based OAuth2 API. All requests are made to endpoints beginning: https://api.medium.com/v1
 All requests must be secure, i.e. https, not http.</t>
-  </si>
-  <si>
-    <t>Hàm Api</t>
   </si>
   <si>
     <t>POST
@@ -66,17 +59,153 @@
   <si>
     <t>Thành công</t>
   </si>
+  <si>
+    <t>Profile(Khách hàng)</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>in()
+out()</t>
+  </si>
+  <si>
+    <t>Lấy lịch sử đặt xe</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Lưu lịch sử thuê cho Profile</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>Sửa lịch sử thuê của Profile</t>
+  </si>
+  <si>
+    <t>Profile(Đối tác)</t>
+  </si>
+  <si>
+    <t>Voucher(Khách hàng)</t>
+  </si>
+  <si>
+    <t>Lấy id voucher, mã voucher</t>
+  </si>
+  <si>
+    <t>Update tình trạng của mã voucher thành đã sử dụng</t>
+  </si>
+  <si>
+    <t>Voucher(Đối tác)</t>
+  </si>
+  <si>
+    <t>Thuê xe</t>
+  </si>
+  <si>
+    <t>getCarWithDriver</t>
+  </si>
+  <si>
+    <t>in(List&lt;CarDriver&gt;)
+out(List&lt;Car&gt;)</t>
+  </si>
+  <si>
+    <t>List&lt;CarDriver&gt;: Car car, isDrive=True
+List&lt;Car&gt;: =&gt; Bảng Car</t>
+  </si>
+  <si>
+    <t>Lọc danh sách xe và danh sách xe có tài xế</t>
+  </si>
+  <si>
+    <t>getCarWithoutDriver</t>
+  </si>
+  <si>
+    <t>in(List&lt;CarWithoutDriver&gt;)
+out(List&lt;Car&gt;)</t>
+  </si>
+  <si>
+    <t>Lọc danh sách xe và danh sách xe không có tài xế</t>
+  </si>
+  <si>
+    <t>getPayment</t>
+  </si>
+  <si>
+    <t>hiện thông tin trang thanh toán</t>
+  </si>
+  <si>
+    <t>getRentCancel</t>
+  </si>
+  <si>
+    <t>hiện trang hủy thuê xe</t>
+  </si>
+  <si>
+    <t>deleteCancel</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Hủy thuê xe</t>
+  </si>
+  <si>
+    <t>createCar</t>
+  </si>
+  <si>
+    <t>Tạo thêm xe vào database</t>
+  </si>
+  <si>
+    <t>createPartner</t>
+  </si>
+  <si>
+    <t>Thêm đối tác</t>
+  </si>
+  <si>
+    <t>createRental</t>
+  </si>
+  <si>
+    <t>Tạo đơn thuê xe</t>
+  </si>
+  <si>
+    <t>storeRental</t>
+  </si>
+  <si>
+    <t>Lưu lịch sử thuê xe</t>
+  </si>
+  <si>
+    <t>updateRental</t>
+  </si>
+  <si>
+    <t>Sửa thông tin thuê xe</t>
+  </si>
+  <si>
+    <t>CarPayment</t>
+  </si>
+  <si>
+    <t>Tạo đơn và thanh toán</t>
+  </si>
+  <si>
+    <t>getRevenue</t>
+  </si>
+  <si>
+    <t>Hiện trang doanh thu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,11 +213,162 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +381,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -112,54 +578,343 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -208,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -243,7 +998,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -417,250 +1172,504 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="34.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="16.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="26.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="29.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="48.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="15.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="18.75" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="165" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>200</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" ht="30" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" ht="30" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="30" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" ht="30" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" ht="30" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" ht="30" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" ht="30" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" ht="30" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" ht="45" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" ht="45" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" ht="30" spans="1:9">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LabTH/Lab3/API Specs Template.xlsx
+++ b/LabTH/Lab3/API Specs Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Tên App</t>
   </si>
@@ -67,21 +67,29 @@
   </si>
   <si>
     <t>in()
+out(idKhachHang)</t>
+  </si>
+  <si>
+    <t>Lấy lịch sử đặt xe</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>in(List&lt;CarRental&gt;)
 out()</t>
   </si>
   <si>
-    <t>Lấy lịch sử đặt xe</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
     <t>Lưu lịch sử thuê cho Profile</t>
   </si>
   <si>
     <t>Put</t>
   </si>
   <si>
+    <t>in()
+out()</t>
+  </si>
+  <si>
     <t>Sửa lịch sử thuê của Profile</t>
   </si>
   <si>
@@ -100,18 +108,21 @@
     <t>Voucher(Đối tác)</t>
   </si>
   <si>
+    <t>Lấy danh sách voucher</t>
+  </si>
+  <si>
     <t>Thuê xe</t>
   </si>
   <si>
     <t>getCarWithDriver</t>
   </si>
   <si>
-    <t>in(List&lt;CarDriver&gt;)
-out(List&lt;Car&gt;)</t>
-  </si>
-  <si>
-    <t>List&lt;CarDriver&gt;: Car car, isDrive=True
-List&lt;Car&gt;: =&gt; Bảng Car</t>
+    <t>in(List&lt;Car&gt;)
+out(new List&lt;Car&gt;)</t>
+  </si>
+  <si>
+    <t>List&lt;CarDriver&gt;:isDrived=True
+List&lt;Car&gt;: =&gt; ListCar có isDrived = True</t>
   </si>
   <si>
     <t>Lọc danh sách xe và danh sách xe có tài xế</t>
@@ -120,8 +131,8 @@
     <t>getCarWithoutDriver</t>
   </si>
   <si>
-    <t>in(List&lt;CarWithoutDriver&gt;)
-out(List&lt;Car&gt;)</t>
+    <t>List&lt;CarDriver&gt;:isDrived = False
+List&lt;Car&gt;: =&gt; ListCar có isDrived = False</t>
   </si>
   <si>
     <t>Lọc danh sách xe và danh sách xe không có tài xế</t>
@@ -195,12 +206,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +229,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -233,6 +237,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +257,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -255,9 +304,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,16 +326,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,37 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -330,9 +357,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,28 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -383,187 +387,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,17 +607,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,11 +640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,26 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,162 +695,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1178,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1266,7 +1267,7 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="3"/>
@@ -1285,12 +1286,12 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1302,232 +1303,255 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" ht="30" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3"/>
+    <row r="8" ht="30" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3"/>
+    <row r="9" ht="30" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" ht="30" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" ht="30" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" ht="30" spans="1:9">
+    <row r="12" ht="45" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="30" spans="1:9">
+    <row r="13" ht="45" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="45" spans="1:9">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="45" spans="1:9">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -1535,18 +1559,18 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -1554,37 +1578,37 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
@@ -1592,80 +1616,42 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" ht="30" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" ht="30" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
